--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_118_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_118_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.142170445477353, 5.772952005339581]</t>
+          <t>[5.148018061357806, 5.767104389459128]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.06837752968240984, 0.43386223952747116]</t>
+          <t>[0.06820124753982348, 0.4340385216700575]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.008165261079202901</v>
+        <v>0.008222378483616399</v>
       </c>
       <c r="V2" t="n">
-        <v>0.008165261079202901</v>
+        <v>0.008222378483616399</v>
       </c>
       <c r="W2" t="n">
         <v>7.021861861862043</v>
